--- a/SchedulingData/dynamic10/pso/scheduling2_7.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>244.86</v>
+        <v>230.6</v>
       </c>
       <c r="D2" t="n">
-        <v>300.6</v>
+        <v>291.1</v>
       </c>
       <c r="E2" t="n">
-        <v>14.54</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>235.1</v>
+        <v>222.56</v>
       </c>
       <c r="D3" t="n">
-        <v>279.38</v>
+        <v>267.66</v>
       </c>
       <c r="E3" t="n">
-        <v>10.752</v>
+        <v>11.904</v>
       </c>
     </row>
     <row r="4">
@@ -504,188 +504,188 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>200.16</v>
+        <v>247.32</v>
       </c>
       <c r="D4" t="n">
-        <v>239.02</v>
+        <v>285.66</v>
       </c>
       <c r="E4" t="n">
-        <v>15.628</v>
+        <v>12.104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>279.38</v>
+        <v>229.9</v>
       </c>
       <c r="D5" t="n">
-        <v>340.16</v>
+        <v>263.66</v>
       </c>
       <c r="E5" t="n">
-        <v>8.304</v>
+        <v>15.624</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>252.72</v>
+        <v>291.1</v>
       </c>
       <c r="D6" t="n">
-        <v>307.02</v>
+        <v>335.38</v>
       </c>
       <c r="E6" t="n">
-        <v>14.908</v>
+        <v>8.252000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>300.6</v>
+        <v>335.38</v>
       </c>
       <c r="D7" t="n">
-        <v>338.1</v>
+        <v>397.98</v>
       </c>
       <c r="E7" t="n">
-        <v>12.42</v>
+        <v>6.092</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>340.16</v>
+        <v>285.66</v>
       </c>
       <c r="D8" t="n">
-        <v>383.96</v>
+        <v>338.18</v>
       </c>
       <c r="E8" t="n">
-        <v>5.064</v>
+        <v>9.452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>281.48</v>
+        <v>338.18</v>
       </c>
       <c r="D9" t="n">
-        <v>337.08</v>
+        <v>380.58</v>
       </c>
       <c r="E9" t="n">
-        <v>11.912</v>
+        <v>7.332</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>239.02</v>
+        <v>222.66</v>
       </c>
       <c r="D10" t="n">
-        <v>305.56</v>
+        <v>261.26</v>
       </c>
       <c r="E10" t="n">
-        <v>12.604</v>
+        <v>14.064</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>307.02</v>
+        <v>380.58</v>
       </c>
       <c r="D11" t="n">
-        <v>358.02</v>
+        <v>434.14</v>
       </c>
       <c r="E11" t="n">
-        <v>11.948</v>
+        <v>4.576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>254.84</v>
+        <v>261.26</v>
       </c>
       <c r="D12" t="n">
-        <v>316.28</v>
+        <v>305.88</v>
       </c>
       <c r="E12" t="n">
-        <v>12.532</v>
+        <v>11.732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>383.96</v>
+        <v>397.98</v>
       </c>
       <c r="D13" t="n">
-        <v>431.08</v>
+        <v>449.52</v>
       </c>
       <c r="E13" t="n">
-        <v>2.472</v>
+        <v>3.068</v>
       </c>
     </row>
     <row r="14">
@@ -694,226 +694,226 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>316.28</v>
+        <v>263.66</v>
       </c>
       <c r="D14" t="n">
-        <v>367.98</v>
+        <v>317.36</v>
       </c>
       <c r="E14" t="n">
-        <v>10.452</v>
+        <v>12.384</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>367.98</v>
+        <v>233.72</v>
       </c>
       <c r="D15" t="n">
-        <v>395.98</v>
+        <v>271.42</v>
       </c>
       <c r="E15" t="n">
-        <v>8.292</v>
+        <v>11.668</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>358.02</v>
+        <v>317.36</v>
       </c>
       <c r="D16" t="n">
-        <v>402.32</v>
+        <v>356.88</v>
       </c>
       <c r="E16" t="n">
-        <v>8.648</v>
+        <v>10.052</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>337.08</v>
+        <v>356.88</v>
       </c>
       <c r="D17" t="n">
-        <v>381.6</v>
+        <v>399.2</v>
       </c>
       <c r="E17" t="n">
-        <v>9.58</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>381.6</v>
+        <v>305.88</v>
       </c>
       <c r="D18" t="n">
-        <v>419.94</v>
+        <v>362.04</v>
       </c>
       <c r="E18" t="n">
-        <v>6.876</v>
+        <v>8.715999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>305.56</v>
+        <v>267.66</v>
       </c>
       <c r="D19" t="n">
-        <v>368.88</v>
+        <v>321.74</v>
       </c>
       <c r="E19" t="n">
-        <v>9.412000000000001</v>
+        <v>9.096</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>368.88</v>
+        <v>399.2</v>
       </c>
       <c r="D20" t="n">
-        <v>416.38</v>
+        <v>439.88</v>
       </c>
       <c r="E20" t="n">
-        <v>6.772</v>
+        <v>5.012</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>402.32</v>
+        <v>362.04</v>
       </c>
       <c r="D21" t="n">
-        <v>448.68</v>
+        <v>411.24</v>
       </c>
       <c r="E21" t="n">
-        <v>5.632</v>
+        <v>5.416</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>338.1</v>
+        <v>321.74</v>
       </c>
       <c r="D22" t="n">
-        <v>406.42</v>
+        <v>358.74</v>
       </c>
       <c r="E22" t="n">
-        <v>9.208</v>
+        <v>7.016</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>395.98</v>
+        <v>271.42</v>
       </c>
       <c r="D23" t="n">
-        <v>447.12</v>
+        <v>310.82</v>
       </c>
       <c r="E23" t="n">
-        <v>4.808</v>
+        <v>8.868</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>416.38</v>
+        <v>310.82</v>
       </c>
       <c r="D24" t="n">
-        <v>476.44</v>
+        <v>361.98</v>
       </c>
       <c r="E24" t="n">
-        <v>4.396</v>
+        <v>6.372</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>406.42</v>
+        <v>434.14</v>
       </c>
       <c r="D25" t="n">
-        <v>441.04</v>
+        <v>479.44</v>
       </c>
       <c r="E25" t="n">
-        <v>6.876</v>
+        <v>2.156</v>
       </c>
     </row>
     <row r="26">
@@ -922,55 +922,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>441.04</v>
+        <v>411.24</v>
       </c>
       <c r="D26" t="n">
-        <v>482.3</v>
+        <v>470.54</v>
       </c>
       <c r="E26" t="n">
-        <v>4.38</v>
+        <v>2.116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>448.68</v>
+        <v>358.74</v>
       </c>
       <c r="D27" t="n">
-        <v>501.3</v>
+        <v>408.6</v>
       </c>
       <c r="E27" t="n">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>pond45</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>419.94</v>
-      </c>
-      <c r="D28" t="n">
-        <v>474.22</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4.068</v>
+        <v>4.64</v>
       </c>
     </row>
   </sheetData>
